--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Robo1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Robo1-Robo1.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="H2">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="I2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="J2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N2">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P2">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q2">
-        <v>0.01757091639511111</v>
+        <v>5.268340277777777E-05</v>
       </c>
       <c r="R2">
-        <v>0.158138247556</v>
+        <v>0.0004741506249999999</v>
       </c>
       <c r="S2">
-        <v>2.851178911868352E-05</v>
+        <v>1.080221022291321E-07</v>
       </c>
       <c r="T2">
-        <v>2.851178911868352E-05</v>
+        <v>1.08022102229132E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="H3">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="I3">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="J3">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>51.534798</v>
       </c>
       <c r="O3">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P3">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q3">
-        <v>2.277070775718667</v>
+        <v>0.1246855807166667</v>
       </c>
       <c r="R3">
-        <v>20.493636981468</v>
+        <v>1.12217022645</v>
       </c>
       <c r="S3">
-        <v>0.003694933167155234</v>
+        <v>0.0002556554405471262</v>
       </c>
       <c r="T3">
-        <v>0.003694933167155233</v>
+        <v>0.000255655440547126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="H4">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="I4">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="J4">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N4">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P4">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q4">
-        <v>0.9960119818295556</v>
+        <v>0.03555582409166666</v>
       </c>
       <c r="R4">
-        <v>8.964107836466001</v>
+        <v>0.320002416825</v>
       </c>
       <c r="S4">
-        <v>0.001616198207710313</v>
+        <v>7.290369760419377E-05</v>
       </c>
       <c r="T4">
-        <v>0.001616198207710313</v>
+        <v>7.290369760419376E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>51.534798</v>
       </c>
       <c r="I5">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="J5">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N5">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P5">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q5">
-        <v>2.277070775718667</v>
+        <v>0.1246855807166667</v>
       </c>
       <c r="R5">
-        <v>20.493636981468</v>
+        <v>1.12217022645</v>
       </c>
       <c r="S5">
-        <v>0.003694933167155234</v>
+        <v>0.0002556554405471262</v>
       </c>
       <c r="T5">
-        <v>0.003694933167155233</v>
+        <v>0.000255655440547126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>51.534798</v>
       </c>
       <c r="I6">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="J6">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>51.534798</v>
       </c>
       <c r="O6">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P6">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q6">
         <v>295.092822766756</v>
@@ -815,10 +815,10 @@
         <v>2655.835404900804</v>
       </c>
       <c r="S6">
-        <v>0.4788381063325636</v>
+        <v>0.6050586216393642</v>
       </c>
       <c r="T6">
-        <v>0.4788381063325635</v>
+        <v>0.6050586216393641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>51.534798</v>
       </c>
       <c r="I7">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="J7">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N7">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P7">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q7">
-        <v>129.0763512323554</v>
+        <v>84.149814571186</v>
       </c>
       <c r="R7">
-        <v>1161.687161091198</v>
+        <v>757.348331140674</v>
       </c>
       <c r="S7">
-        <v>0.2094482509500763</v>
+        <v>0.172540864729516</v>
       </c>
       <c r="T7">
-        <v>0.2094482509500762</v>
+        <v>0.1725408647295159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,46 +903,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="H8">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="I8">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="J8">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1325553333333333</v>
+        <v>0.007258333333333333</v>
       </c>
       <c r="N8">
-        <v>0.397666</v>
+        <v>0.021775</v>
       </c>
       <c r="O8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="P8">
-        <v>0.00533964316398423</v>
+        <v>0.000328667160253549</v>
       </c>
       <c r="Q8">
-        <v>0.9960119818295556</v>
+        <v>0.03555582409166666</v>
       </c>
       <c r="R8">
-        <v>8.964107836466001</v>
+        <v>0.320002416825</v>
       </c>
       <c r="S8">
-        <v>0.001616198207710313</v>
+        <v>7.290369760419377E-05</v>
       </c>
       <c r="T8">
-        <v>0.001616198207710313</v>
+        <v>7.290369760419376E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="H9">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="I9">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="J9">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>51.534798</v>
       </c>
       <c r="O9">
-        <v>0.6919812904497951</v>
+        <v>0.7778551418094273</v>
       </c>
       <c r="P9">
-        <v>0.691981290449795</v>
+        <v>0.7778551418094272</v>
       </c>
       <c r="Q9">
-        <v>129.0763512323554</v>
+        <v>84.149814571186</v>
       </c>
       <c r="R9">
-        <v>1161.687161091198</v>
+        <v>757.348331140674</v>
       </c>
       <c r="S9">
-        <v>0.2094482509500763</v>
+        <v>0.172540864729516</v>
       </c>
       <c r="T9">
-        <v>0.2094482509500762</v>
+        <v>0.1725408647295159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="H10">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="I10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="J10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.513933666666667</v>
+        <v>4.898620999999999</v>
       </c>
       <c r="N10">
-        <v>22.541801</v>
+        <v>14.695863</v>
       </c>
       <c r="O10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="P10">
-        <v>0.3026790663862208</v>
+        <v>0.2218161910303192</v>
       </c>
       <c r="Q10">
-        <v>56.45919914706679</v>
+        <v>23.99648770164099</v>
       </c>
       <c r="R10">
-        <v>508.1327923236012</v>
+        <v>215.968389314769</v>
       </c>
       <c r="S10">
-        <v>0.09161461722843428</v>
+        <v>0.04920242260319908</v>
       </c>
       <c r="T10">
-        <v>0.09161461722843428</v>
+        <v>0.04920242260319907</v>
       </c>
     </row>
   </sheetData>
